--- a/biology/Histoire de la zoologie et de la botanique/Alphonse_Toussenel/Alphonse_Toussenel.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Alphonse_Toussenel/Alphonse_Toussenel.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alphonse Toussenel (17 mars 1803 à Montreuil-Bellay — 30 avril 1885 à Paris (15e)[1], inhumé au cimetière du Père-Lachaise (division 16)) est un écrivain et journaliste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alphonse Toussenel (17 mars 1803 à Montreuil-Bellay — 30 avril 1885 à Paris (15e), inhumé au cimetière du Père-Lachaise (division 16)) est un écrivain et journaliste français.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Socialiste utopique et disciple de Fourier, il était aussi anglophobe et antisémite[2],[3]. Il fut rédacteur en chef du journal La Paix. Ses études d'histoire naturelle (L'Esprit des bêtes est son œuvre principale) lui servaient parfois à exprimer ses pensées philosophiques. Il exerça une influence certaine sur Édouard Drumont qui lui rend hommage dans son livre La France juive, mais aussi sur les boulangistes, le Marquis de Morès, Pierre Biétry.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Socialiste utopique et disciple de Fourier, il était aussi anglophobe et antisémite,. Il fut rédacteur en chef du journal La Paix. Ses études d'histoire naturelle (L'Esprit des bêtes est son œuvre principale) lui servaient parfois à exprimer ses pensées philosophiques. Il exerça une influence certaine sur Édouard Drumont qui lui rend hommage dans son livre La France juive, mais aussi sur les boulangistes, le Marquis de Morès, Pierre Biétry.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Citations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>« Tous les liseurs de Bible, qu'on les appelle Juifs ou Genevois, Hollandais, Anglais, Américains, ont dû trouver écrit dans leur livre de prières que Dieu avait concédé aux serviteurs de sa loi le monopole de l'exploitation du globe, car tous ces peuples mercantiles apportent, dans l'art de rançonner le genre humain, la même ferveur de fanatisme religieux. C'est pourquoi je comprends les persécutions que les Romains, les Chrétiens et les Mahométans ont fait subir aux Juifs. La répulsion universelle que le juif a inspirée si longtemps n'était que la juste punition de son implacable orgueil, et nos mépris les représailles légitimes de la haine qu’il semblait porter au reste de l’humanité. » Les juifs rois de l'époque, histoire de la féodalité financière.
-L'historien Jean-Pierre Rioux considère que cet ouvrage n'est pas étranger à la dimension antisémite que certains ont pu donner au mythe politique des Deux cents familles. Cette dimension antisémite a été reprise des décennies après par Édouard Drumont[4]</t>
+L'historien Jean-Pierre Rioux considère que cet ouvrage n'est pas étranger à la dimension antisémite que certains ont pu donner au mythe politique des Deux cents familles. Cette dimension antisémite a été reprise des décennies après par Édouard Drumont</t>
         </is>
       </c>
     </row>
@@ -573,7 +589,9 @@
           <t>Principaux ouvrages</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les Juifs, rois de l'époque : histoire de la féodalité financière Paris : chez C. Marpon &amp; E. Flammarion → lire en ligne tome 1 &amp; tome 2
 L'Esprit des bêtes — Vénerie française et zoologie passionnelle (1847) — Exemplaire numérique consultable sur Gallica.
